--- a/Inputs/Pacific_Cross_Firstcare/info.xlsx
+++ b/Inputs/Pacific_Cross_Firstcare/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">provider</t>
   </si>
@@ -43,10 +43,13 @@
     <t xml:space="preserve">insurerName</t>
   </si>
   <si>
+    <t xml:space="preserve">copayTypes</t>
+  </si>
+  <si>
     <t xml:space="preserve">pacific_cross_firstcare</t>
   </si>
   <si>
-    <t xml:space="preserve">ROW</t>
+    <t xml:space="preserve">NE_Dubai/</t>
   </si>
   <si>
     <t xml:space="preserve">2024-11-01</t>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pacific_Cross_Firstcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP/OP</t>
   </si>
 </sst>
 </file>
@@ -181,12 +187,13 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -212,29 +219,34 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
